--- a/uploads/Template_Produtos_Mpozenato_CADASTRO_32.xlsx
+++ b/uploads/Template_Produtos_Mpozenato_CADASTRO_32.xlsx
@@ -11271,12 +11271,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -11314,12 +11314,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -11357,12 +11357,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -11400,12 +11400,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -11443,12 +11443,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -11486,12 +11486,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -11529,12 +11529,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -11572,12 +11572,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -11658,12 +11658,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -11701,12 +11701,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -11744,12 +11744,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -11787,12 +11787,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -11873,12 +11873,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -11916,12 +11916,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -11959,12 +11959,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -12002,12 +12002,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -12045,12 +12045,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -12088,12 +12088,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -12174,12 +12174,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -12217,12 +12217,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -12303,12 +12303,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -12346,12 +12346,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -12432,12 +12432,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -12475,12 +12475,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -12518,12 +12518,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -12561,12 +12561,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -12604,12 +12604,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -12647,12 +12647,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -12690,12 +12690,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>12/08/2055</t>
+          <t>13/08/2055</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
